--- a/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_5/out_of_sample/aryl_halide/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_5/out_of_sample/aryl_halide/ranking_test3/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.312</v>
+        <v>0.543</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.978</v>
+        <v>16.894</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.178</v>
+        <v>0.588</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.02</v>
+        <v>17.008</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.476</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.919</v>
+        <v>7.539</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>26.28308313392854</v>
+        <v>8.818954319520682</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>30.54266338748168</v>
+        <v>9.149323288166865</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>32.83283148076244</v>
+        <v>9.790912300718698</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>27.68447220095782</v>
+        <v>5.68471894626688</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>30.81307343709489</v>
+        <v>18.38307233547277</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>26.2834020758978</v>
+        <v>18.76669188658797</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>30.54298657572355</v>
+        <v>25.12651135824157</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>32.83315671988881</v>
+        <v>28.08203217838757</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>27.68479304831572</v>
+        <v>21.49524526419358</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>30.81339635846857</v>
+        <v>38.48356955082608</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>26.28350298033549</v>
+        <v>16.52356922235728</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>30.54308764711713</v>
+        <v>20.556018117011</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>32.8332577467264</v>
+        <v>23.33270991718586</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>27.6848942420275</v>
+        <v>15.16611281632609</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>30.8134971189433</v>
+        <v>36.46877597218551</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>26.28335801684039</v>
+        <v>16.42894599653661</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>30.54294328320843</v>
+        <v>17.26495388866377</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>32.83311358340903</v>
+        <v>20.05209759191305</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>27.68474926584832</v>
+        <v>12.68242513262109</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>30.81335242460413</v>
+        <v>34.50579960019346</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>35.43112615076734</v>
+        <v>22.77063428738498</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>37.79386836444873</v>
+        <v>23.90854507080962</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>32.57245417159596</v>
+        <v>18.33606697966755</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>37.76090838618812</v>
+        <v>23.93270909848402</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>42.44929571441293</v>
+        <v>29.15826407201652</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>44.86414731749402</v>
+        <v>30.40663705903932</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>39.4965778059051</v>
+        <v>23.33864277426337</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>35.43145339503067</v>
+        <v>47.81183363514262</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>37.79419768192058</v>
+        <v>52.03201954607795</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>32.5727790886605</v>
+        <v>43.81195293828907</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>37.76123824899355</v>
+        <v>49.00279557963205</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>42.44962993419175</v>
+        <v>61.85592358854862</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>44.86448363951573</v>
+        <v>66.90843210000978</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>39.49690964357164</v>
+        <v>57.05750591161322</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>35.43155423149244</v>
+        <v>43.90767349643878</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>37.79429845689812</v>
+        <v>47.94828138525878</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>32.57288005064773</v>
+        <v>38.8846364143956</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>37.76133856073979</v>
+        <v>47.59419857551703</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>42.4497303219858</v>
+        <v>59.06399319071718</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>44.86458395987895</v>
+        <v>64.21874882274355</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>39.4970101765919</v>
+        <v>53.13138330660868</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>35.43141030288397</v>
+        <v>38.20238173368344</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>37.79415476922455</v>
+        <v>41.84740430714143</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>32.57273549203035</v>
+        <v>33.96771588932293</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>37.76119209730703</v>
+        <v>48.23439491730971</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>42.44958465471478</v>
+        <v>55.80857628120387</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>44.86443853994902</v>
+        <v>60.5479237261722</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>39.49686387841037</v>
+        <v>49.42030537935219</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>27.61014093174015</v>
+        <v>35.27709195962473</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>31.75010738239132</v>
+        <v>33.20422714205952</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>34.08742532247055</v>
+        <v>36.9851062546833</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>28.81172934979881</v>
+        <v>25.62085426400963</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>31.70837701181803</v>
+        <v>27.98449969400195</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>27.61045672114657</v>
+        <v>44.53752513886792</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>31.75042735559976</v>
+        <v>47.96834177699131</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>34.08774735409441</v>
+        <v>54.02505973134802</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>28.81204699138678</v>
+        <v>40.26724266684133</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>31.70869673400625</v>
+        <v>45.77779867414455</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>27.61055618003937</v>
+        <v>42.56349738744549</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>31.75052699735834</v>
+        <v>43.46407361569911</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>34.0878469382175</v>
+        <v>49.25305297550435</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>28.81214678204804</v>
+        <v>34.04221488542649</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>31.70879618224378</v>
+        <v>44.69731424605709</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>27.61041425286261</v>
+        <v>45.3350234504054</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>31.75038561992056</v>
+        <v>43.50246642634042</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>34.08770578759142</v>
+        <v>49.23792639463224</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>28.81200473253701</v>
+        <v>35.06480637656315</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>31.70865425595262</v>
+        <v>43.39297901120872</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>36.20364541022835</v>
+        <v>31.43860227373457</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>38.61173731328263</v>
+        <v>34.85544491628681</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>33.26774091760717</v>
+        <v>24.84769883634217</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>38.7481635820571</v>
+        <v>33.43700980947747</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>43.32489123366388</v>
+        <v>36.96815821841622</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>45.78339656189738</v>
+        <v>40.66730083477347</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>40.2977495759681</v>
+        <v>28.73301550646212</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>36.20396939117767</v>
+        <v>53.61368471702215</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>38.61206337450369</v>
+        <v>60.05413104437343</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>33.26806257958818</v>
+        <v>47.4803924962176</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>38.74849017441866</v>
+        <v>53.9710429609766</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>43.32522212443996</v>
+        <v>64.54860934781775</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>45.78372956177431</v>
+        <v>71.98957294080361</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>40.29807809591843</v>
+        <v>57.3941602322997</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>36.20406893204502</v>
+        <v>50.45570253658516</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>38.61216284137883</v>
+        <v>56.63223963691624</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>33.26816227129999</v>
+        <v>43.33853252678139</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>38.74858910077054</v>
+        <v>53.31415117410452</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>43.32532114192405</v>
+        <v>62.36477526499598</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>45.78382849970615</v>
+        <v>69.82319789474212</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>40.29817728422509</v>
+        <v>54.13740386825165</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>36.20392772259413</v>
+        <v>45.93147624263256</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>38.61202189796965</v>
+        <v>51.6460043560084</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>33.26802037520514</v>
+        <v>39.84363432185276</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>38.74844552068242</v>
+        <v>55.35242178104653</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>43.32517831117227</v>
+        <v>61.08609178309248</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>45.78368594039593</v>
+        <v>68.0623445011673</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>40.29803376485545</v>
+        <v>52.66431969183483</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>27.14042999924788</v>
+        <v>29.24620598778844</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>31.28048860565261</v>
+        <v>30.14554408797553</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>33.6127856191862</v>
+        <v>33.32068846270653</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>28.34641677002499</v>
+        <v>22.92799788678357</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>31.45822039092381</v>
+        <v>26.4625780374761</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>27.14074653457268</v>
+        <v>42.04913732722068</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>31.28080933169862</v>
+        <v>48.45329853422177</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>33.613108405265</v>
+        <v>53.91449952002219</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>28.34673516109173</v>
+        <v>40.98740154184597</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>31.45854089137123</v>
+        <v>45.15866724617553</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>27.14084637653761</v>
+        <v>40.97041406823726</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>31.280909357553</v>
+        <v>44.83370795749798</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>33.6132083754681</v>
+        <v>50.11398537115926</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>28.34683533279422</v>
+        <v>35.56930109329025</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>31.45864066968106</v>
+        <v>45.47148093371999</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>27.14070360764021</v>
+        <v>41.55133353326178</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>31.28076713475519</v>
+        <v>42.56886775620947</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>33.61306637365279</v>
+        <v>47.91955609877198</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>28.34669244436132</v>
+        <v>34.30537142597402</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>31.4584980121603</v>
+        <v>43.42632828382091</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>35.95382014880153</v>
+        <v>32.54962622442648</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>38.3577440273735</v>
+        <v>35.6768173842606</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>33.02069451723779</v>
+        <v>26.34835583567579</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>38.47223447042526</v>
+        <v>29.51337174684067</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>43.04971513004804</v>
+        <v>35.50896125087135</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>45.50428429090752</v>
+        <v>38.90370045402483</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>40.02529597888531</v>
+        <v>27.69852223804363</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>35.95414491478599</v>
+        <v>55.62466613502485</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>38.35807087532627</v>
+        <v>61.76832461128285</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>33.02101696084927</v>
+        <v>49.78747110482394</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>38.4725618251674</v>
+        <v>51.59546871548517</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>43.05004678969018</v>
+        <v>64.64268351129229</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>45.50461806132859</v>
+        <v>71.7719039755662</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>40.02562526424325</v>
+        <v>57.82151289883362</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>35.95424478668544</v>
+        <v>53.81946854436191</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>38.35817067499151</v>
+        <v>59.78729457501879</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>33.02111698106705</v>
+        <v>46.9164461957715</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>38.47266108445747</v>
+        <v>52.34593949630167</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>43.05014614102915</v>
+        <v>63.82647387035294</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>45.50471733479251</v>
+        <v>71.06159065046793</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>40.02572478387624</v>
+        <v>55.84524454108836</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>35.95410284291265</v>
+        <v>48.42437650126718</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>38.35802899192878</v>
+        <v>54.07832061990248</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>33.02097435621588</v>
+        <v>42.52604656303183</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>38.47251678561588</v>
+        <v>53.78506625321648</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>43.05000258905984</v>
+        <v>61.80921663489508</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>45.50457404913259</v>
+        <v>68.70713679949679</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>40.02558054872713</v>
+        <v>53.61241151649605</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>25.86873073775727</v>
+        <v>12.17988592425152</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>30.12138085405834</v>
+        <v>15.38258258192283</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>32.39477227750429</v>
+        <v>15.89578094821212</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>27.29009164158492</v>
+        <v>15.43991940116896</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>30.3041258413327</v>
+        <v>15.02873928898273</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>25.86904802928989</v>
+        <v>26.0251489909815</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>30.1217023772636</v>
+        <v>35.22506291147343</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>32.39509583918373</v>
+        <v>38.03421936198583</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>27.29041083884615</v>
+        <v>35.0501561770171</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>30.3044470508309</v>
+        <v>38.17750839204803</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>25.86914859651904</v>
+        <v>24.18969760068654</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>30.12180310961979</v>
+        <v>31.15889947418176</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>32.39519652844114</v>
+        <v>33.78375088996245</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>27.29051168907532</v>
+        <v>29.23350375306248</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>30.30454748317188</v>
+        <v>35.65548656771509</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>25.8690038756291</v>
+        <v>21.97934664293984</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>30.12165898949547</v>
+        <v>25.62701433291633</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>32.39505260463254</v>
+        <v>28.24691619663741</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>27.29036696678208</v>
+        <v>24.57548297060546</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>30.30440301829384</v>
+        <v>30.6761446869568</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>34.91103887607412</v>
+        <v>20.69711885183997</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>37.2565141354324</v>
+        <v>21.451577762845</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>32.07816200545585</v>
+        <v>18.71539204323775</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>37.30746859625454</v>
+        <v>20.91594586358093</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>41.98550999489395</v>
+        <v>27.52204313458011</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>44.38299977164014</v>
+        <v>28.38200453356481</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>39.05831551442518</v>
+        <v>24.04251447070513</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>34.91136439254728</v>
+        <v>48.75915191008866</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>37.25684171255093</v>
+        <v>52.56324037012598</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>32.07848520933936</v>
+        <v>47.12988541777631</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>37.30779676654483</v>
+        <v>48.7561924325698</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>41.98584250723925</v>
+        <v>62.96151390327097</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>44.3833343735824</v>
+        <v>67.58766046415118</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>39.05864565919873</v>
+        <v>60.41651493195721</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>34.91146489974568</v>
+        <v>44.43924880611652</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>37.2569421598761</v>
+        <v>48.06007171623389</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>32.07858583782665</v>
+        <v>41.78717011426588</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>37.30789673496634</v>
+        <v>47.04325497756156</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>41.98594255102033</v>
+        <v>59.96615784721084</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>44.38343435145693</v>
+        <v>64.68400559893806</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>39.05874584412211</v>
+        <v>56.28869204834561</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>34.91132120008487</v>
+        <v>35.58974413811669</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>37.25679869658885</v>
+        <v>38.80748288777605</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>32.07844151777757</v>
+        <v>33.80825086119287</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>37.30775053545414</v>
+        <v>44.92348155317592</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>41.98579714718001</v>
+        <v>53.81602092563904</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>44.38328919050684</v>
+        <v>58.10589751514433</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>39.05859981865417</v>
+        <v>49.78833830137094</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>29.80900265470399</v>
+        <v>25.62269627396097</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>34.01865553309281</v>
+        <v>25.41827210799121</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>36.31980866808528</v>
+        <v>28.05187191692246</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>31.12019288160521</v>
+        <v>18.64583084114664</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>34.35340840967973</v>
+        <v>27.02417287010018</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>29.80932116448242</v>
+        <v>40.27277171021433</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>34.01897825606914</v>
+        <v>46.12530129327192</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>36.32013344083535</v>
+        <v>51.16407012426765</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>31.12051325824041</v>
+        <v>39.01787664532853</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>34.35373087078452</v>
+        <v>49.24866739044518</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>29.80942081410248</v>
+        <v>38.71788378038067</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>34.01907807593987</v>
+        <v>42.31175284694538</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>36.32023321248523</v>
+        <v>47.22126485463218</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>31.12061321084535</v>
+        <v>33.42118907599186</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>34.35383036972915</v>
+        <v>47.95096032643593</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>29.80927764603053</v>
+        <v>40.78188733759177</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>34.01893549235199</v>
+        <v>41.0559515380443</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>36.32009083425994</v>
+        <v>46.01102385853622</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>31.12046999777677</v>
+        <v>33.03025815283078</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>34.35368748555959</v>
+        <v>48.86575378933154</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>38.92420396893968</v>
+        <v>34.12961482687811</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>41.29701079188759</v>
+        <v>37.01687877523068</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>36.02677364437041</v>
+        <v>28.43790924684575</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>41.12186842546545</v>
+        <v>28.1755531502778</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>45.76257814415243</v>
+        <v>34.86417969142153</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>48.18636131162496</v>
+        <v>37.6346871453826</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>42.77311870676679</v>
+        <v>27.84075500406109</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>38.92453072008918</v>
+        <v>61.35065041716902</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>41.2973396148792</v>
+        <v>67.38970827135728</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>36.02709806328136</v>
+        <v>55.94060468083384</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>41.12219768011745</v>
+        <v>52.51233514924007</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>45.76291172397826</v>
+        <v>66.9009357212885</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>48.18669699175162</v>
+        <v>73.54224946614292</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>42.77344990111782</v>
+        <v>60.7884131636134</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>38.92463029737299</v>
+        <v>58.20791657128578</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>41.29743912730254</v>
+        <v>64.12629290602678</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>36.02719777604142</v>
+        <v>51.73369860898222</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>41.12229673656856</v>
+        <v>51.37521962026304</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>45.76301085960299</v>
+        <v>64.45254278286589</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>48.18679605661921</v>
+        <v>71.24483691622376</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>42.77354919190446</v>
+        <v>57.17894657537582</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>38.92448816585524</v>
+        <v>55.24007047406192</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>41.29729724092694</v>
+        <v>60.81412571062683</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>36.02705499815725</v>
+        <v>49.61602775616362</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>41.12215209259359</v>
+        <v>55.91502211956447</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>45.76286699765619</v>
+        <v>64.96066001580223</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>48.18665244611771</v>
+        <v>71.3845655319125</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>42.7734046824802</v>
+        <v>57.28312299972598</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>24.86445247745251</v>
+        <v>29.69900719570105</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>28.89177395189345</v>
+        <v>24.8915251555089</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>31.18201116451273</v>
+        <v>28.16241686069844</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>25.9931200875676</v>
+        <v>15.30219684478109</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>29.53176762753455</v>
+        <v>32.43907511316266</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>24.86476182611361</v>
+        <v>41.38421218363771</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>28.89208739644037</v>
+        <v>42.22490616683987</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>31.18232663136458</v>
+        <v>47.70496473686862</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>25.99343122968287</v>
+        <v>32.44986537172085</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>29.53208100711201</v>
+        <v>51.01085944933777</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>24.8648600317411</v>
+        <v>41.33482093704797</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>28.89218579139998</v>
+        <v>39.79179423875669</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>31.182424970999</v>
+        <v>45.13420380795094</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>25.99352977144441</v>
+        <v>28.30354234172514</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>29.53217905894121</v>
+        <v>51.46076032393361</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>24.86471966868609</v>
+        <v>42.60738354767253</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>28.89204596445078</v>
+        <v>37.98334577048698</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>31.18228536010168</v>
+        <v>43.45664287780053</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>25.99338928637773</v>
+        <v>27.29429847911311</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>29.53203898506229</v>
+        <v>50.72699977006602</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>33.91823475036855</v>
+        <v>37.97254125552936</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>36.28051128306046</v>
+        <v>42.07953927119721</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>31.02076713001675</v>
+        <v>30.77843992094997</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>36.49397947015802</v>
+        <v>32.43255724851966</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>40.95987559256695</v>
+        <v>37.50417405434897</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>43.37189992064575</v>
+        <v>41.36053355617324</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>37.97195066768602</v>
+        <v>29.41359073622706</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>33.91855230183365</v>
+        <v>61.11999745713857</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>36.2808308791338</v>
+        <v>68.17051780427153</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>31.021082391932</v>
+        <v>54.31348944013027</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>36.49429971712777</v>
+        <v>52.86529347265363</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>40.96020005052763</v>
+        <v>65.14492952367831</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>43.37222645191472</v>
+        <v>72.63886867373819</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>37.97227278443668</v>
+        <v>58.10485480753678</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>33.91865045159925</v>
+        <v>59.57409082245883</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>36.28092895691387</v>
+        <v>66.50194600320751</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>31.02118069091911</v>
+        <v>51.74767351011943</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>36.49439727455499</v>
+        <v>54.13930871596861</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>40.9602977046199</v>
+        <v>64.963788321507</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>43.37232402866828</v>
+        <v>72.6070010429282</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>37.97237060733775</v>
+        <v>56.82244331651563</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>33.91851108267375</v>
+        <v>55.24409108273258</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>36.28078984361468</v>
+        <v>61.91536718228525</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>31.02104064846642</v>
+        <v>48.22880158320029</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>36.49425550634103</v>
+        <v>56.47851763602074</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>40.960156673123</v>
+        <v>63.57559661015276</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>43.37218325787167</v>
+        <v>70.95137170614598</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>37.97222890067859</v>
+        <v>55.0237665453175</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>20.28022200499518</v>
+        <v>10.06163846772361</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>24.36906623938656</v>
+        <v>10.77562124443952</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>26.63300498251638</v>
+        <v>10.89005792793131</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>21.52872205049545</v>
+        <v>7.61558756414254</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>25.01203821299186</v>
+        <v>19.63773223314675</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>20.280532021711</v>
+        <v>15.8964199497168</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>24.36938037857641</v>
+        <v>21.88364185682573</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>26.63332114187567</v>
+        <v>24.10062162218147</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>21.52903389191766</v>
+        <v>18.45677391088688</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>25.012352312078</v>
+        <v>35.0215382323928</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>20.28063187343082</v>
+        <v>14.20010312100177</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>24.36948041200055</v>
+        <v>17.85933091593918</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>26.63342112701342</v>
+        <v>19.82138424301172</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>21.52913405588201</v>
+        <v>12.75470678761522</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>25.01245199968645</v>
+        <v>34.71715636046278</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>20.28048872984735</v>
+        <v>13.27274529803779</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>24.3693378312704</v>
+        <v>13.88043784737354</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>26.63327874954829</v>
+        <v>15.87789616518446</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>21.52899084682663</v>
+        <v>9.643559091655472</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>25.01230916585045</v>
+        <v>31.5355652800136</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>29.45297680381688</v>
+        <v>23.36794651754454</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>31.79003441591597</v>
+        <v>24.67697243377463</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>26.6111270638825</v>
+        <v>19.34184728795665</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>32.14461872522857</v>
+        <v>24.35375429961337</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>36.66696759749694</v>
+        <v>28.79371194764158</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>39.0556458934672</v>
+        <v>30.44609470432513</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>33.73252169783484</v>
+        <v>23.63114232300685</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>29.45329510043962</v>
+        <v>42.88397042139778</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>31.79035475525724</v>
+        <v>47.03476821951688</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>26.61144307503272</v>
+        <v>39.15726723547616</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>32.14493982293273</v>
+        <v>46.08900169979265</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>36.66729293106522</v>
+        <v>57.27552448812489</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>39.05597329924252</v>
+        <v>62.48840408166868</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>33.73284469242653</v>
+        <v>53.01502896610592</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>29.45339488030462</v>
+        <v>40.6719533238406</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>31.79045446985149</v>
+        <v>44.56210657047845</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>26.61154298863071</v>
+        <v>35.97873800018252</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>32.14503900238623</v>
+        <v>46.43545465100809</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>36.66739220055285</v>
+        <v>56.2223390710225</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>39.05607249788818</v>
+        <v>61.45958727933836</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>33.73294411533377</v>
+        <v>50.885478799477</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>29.45325277393481</v>
+        <v>33.92222044068231</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>31.79031260700509</v>
+        <v>37.45015836397232</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>26.61140023713319</v>
+        <v>30.07569753653277</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>32.14489449200172</v>
+        <v>46.08514336866364</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>36.66724845136928</v>
+        <v>52.17833509945913</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>39.05592899780925</v>
+        <v>57.03109067933016</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>33.73279971947019</v>
+        <v>46.478116261971</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>23.95420741810629</v>
+        <v>6.563378073959708</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>28.15709310180468</v>
+        <v>4.239463910192821</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>30.45661413728186</v>
+        <v>3.435485861880661</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>25.26828832390875</v>
+        <v>0.7442825304003939</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>28.47898051714746</v>
+        <v>2.306080432805143</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>23.95452593223319</v>
+        <v>13.5133015274722</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>28.15741584912907</v>
+        <v>16.74262733950658</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>30.45693894059832</v>
+        <v>18.07204079137432</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>25.26860872214407</v>
+        <v>13.01403004343686</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>28.47930299378458</v>
+        <v>15.18669418929971</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>23.95462751528517</v>
+        <v>14.68095150956867</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>28.15751761139479</v>
+        <v>15.56061804864688</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>30.45704065712515</v>
+        <v>16.67665707089884</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>25.268710611919</v>
+        <v>10.09164867357785</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>28.47940443781298</v>
+        <v>16.15932524442618</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>23.95448113599684</v>
+        <v>12.53896304777689</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>28.15737180806361</v>
+        <v>10.59949698107917</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>30.45689505459754</v>
+        <v>11.76858249426041</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>25.26856418462573</v>
+        <v>6.066476240745455</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>28.47925832156033</v>
+        <v>13.75997891020679</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>33.04387423352392</v>
+        <v>4.412810981822783</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>35.41620491303183</v>
+        <v>3.347018596031486</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>30.15484392433089</v>
+        <v>0.5148468189665003</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>35.48477425145077</v>
+        <v>9.718455662845511</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>40.12393578422246</v>
+        <v>12.53899232937843</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>42.54808736603216</v>
+        <v>11.56826304797522</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>37.14106763916601</v>
+        <v>6.887304851521574</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>33.04420102012028</v>
+        <v>21.76011393268848</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>35.41653377801128</v>
+        <v>23.56513432607531</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>30.15516837543243</v>
+        <v>18.22698898565752</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>35.48510368792419</v>
+        <v>26.91478463012347</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>40.12426956700988</v>
+        <v>36.89468095989312</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>42.54842325616598</v>
+        <v>39.5168405061016</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>37.14139903212553</v>
+        <v>32.21473911423598</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>33.04430255109334</v>
+        <v>20.79370863093507</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>35.41663524632203</v>
+        <v>22.38862974174227</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>30.15527003689467</v>
+        <v>16.23902681415271</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>35.48520465160448</v>
+        <v>28.50067029813712</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>40.12437061755946</v>
+        <v>37.06529026157367</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>42.5485242380891</v>
+        <v>39.74962442642746</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>37.14150023316637</v>
+        <v>31.25984549596731</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>33.04415717988725</v>
+        <v>15.03635256564658</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>35.41649011629679</v>
+        <v>16.30206905729184</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>30.15512402433413</v>
+        <v>11.41293470240035</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>35.48505680252944</v>
+        <v>29.05447757697683</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>40.12422354483319</v>
+        <v>34.10164867835149</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>42.54837741299882</v>
+        <v>36.42509574976486</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>37.14135251774792</v>
+        <v>27.99216128990716</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>27.69756795421506</v>
+        <v>37.37790508650212</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>31.81253838789702</v>
+        <v>34.43217271092479</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>34.137273333671</v>
+        <v>37.18217214900616</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>28.88580784655681</v>
+        <v>27.90361436732357</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>32.01317743893523</v>
+        <v>22.72113200640515</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>27.69788235151374</v>
+        <v>47.03637923486383</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>31.81285695419493</v>
+        <v>49.68582824254909</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>34.13759394900184</v>
+        <v>54.67692837729214</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>28.88612408693424</v>
+        <v>43.0298802426345</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>32.01349581910036</v>
+        <v>39.10765087755419</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>27.69798132725088</v>
+        <v>46.44716176888926</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>31.8129561155619</v>
+        <v>46.61267015523188</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>34.13769305344462</v>
+        <v>51.4533997201404</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>28.8862233957985</v>
+        <v>38.1664435637779</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>32.01359473730817</v>
+        <v>40.38015355183717</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>27.69784030869761</v>
+        <v>44.56247328321913</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>31.81281564706762</v>
+        <v>41.84432352000888</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>34.13755280705508</v>
+        <v>46.7150295725061</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>28.88608226331988</v>
+        <v>34.25617370746997</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>32.01345379230834</v>
+        <v>37.35420923983361</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>36.48556533215541</v>
+        <v>25.84179565197999</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>38.88176033774106</v>
+        <v>28.30606868253238</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>33.56120382003773</v>
+        <v>20.76996166498432</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>38.95435108529832</v>
+        <v>31.17478600248517</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>43.50538099448436</v>
+        <v>33.57933474152352</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>45.95183457498655</v>
+        <v>36.334739180756</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>40.49001184790663</v>
+        <v>27.03405135548965</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>36.48588795615045</v>
+        <v>46.62437338325472</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>38.88208503271866</v>
+        <v>52.05902295669557</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>33.5615241313175</v>
+        <v>42.00556932000811</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>38.95467631311939</v>
+        <v>50.68490575012171</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>43.50571050423417</v>
+        <v>60.12574062307405</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>45.95216618468381</v>
+        <v>66.5626432976091</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>40.49033899275057</v>
+        <v>54.65781082810892</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>36.48598696886107</v>
+        <v>45.83369115703144</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>38.88218397188388</v>
+        <v>51.1279392339822</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>33.5616232936797</v>
+        <v>40.13758768751413</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>38.95477472954139</v>
+        <v>52.95343467841002</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>43.50580901368578</v>
+        <v>60.88464838152456</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>45.95226461518973</v>
+        <v>67.46230690930199</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>40.49043767152222</v>
+        <v>54.25626954154436</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>36.48584674197932</v>
+        <v>39.48923320387618</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>38.88204400662528</v>
+        <v>44.42528627101856</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>33.56148238778729</v>
+        <v>34.65518351396625</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>38.95463207866472</v>
+        <v>53.07139839775047</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>43.5056671127666</v>
+        <v>57.58498619439089</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>45.95212298106237</v>
+        <v>63.79434116964202</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>40.49029509014682</v>
+        <v>50.60729213400472</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>18.19804613401818</v>
+        <v>5.972678668638334</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>22.26373368566811</v>
+        <v>4.755232795834981</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>24.51239463939477</v>
+        <v>4.259480033894615</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>19.45547814429198</v>
+        <v>1.996839767631027</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>22.66408800517719</v>
+        <v>10.40971467084699</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>18.19835497025093</v>
+        <v>14.51864286889429</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>22.26404662826137</v>
+        <v>18.55528525142583</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>24.51270959276855</v>
+        <v>20.13639232857338</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>19.45578880182413</v>
+        <v>15.53930319272771</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>22.66440081311609</v>
+        <v>28.72252057809692</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>18.19845515962187</v>
+        <v>12.45568736682392</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>22.26414700018265</v>
+        <v>13.96078528612489</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>24.51280991864115</v>
+        <v>15.17030296154834</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>19.45588929774467</v>
+        <v>9.275978441272823</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>22.66450088379118</v>
+        <v>25.67262322720947</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>18.19831170926279</v>
+        <v>10.14833848028277</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>22.2640040987868</v>
+        <v>8.923459018672329</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>24.51266722110371</v>
+        <v>10.01365367223766</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>19.45574577643043</v>
+        <v>5.323123365484516</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>22.66435769229788</v>
+        <v>18.94292610627189</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>27.07674245351847</v>
+        <v>11.23318523775779</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>29.39744386533055</v>
+        <v>11.15253711015555</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>24.26700195725508</v>
+        <v>7.145356104567352</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>29.85933684197132</v>
+        <v>18.21278450222891</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>34.35782443208846</v>
+        <v>20.99545334303738</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>36.72972869454022</v>
+        <v>21.04662082751326</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>31.45662488153725</v>
+        <v>15.49635997341224</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>27.07705944190417</v>
+        <v>33.71859679805775</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>29.39776288652192</v>
+        <v>36.45615230391664</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>24.26731667228318</v>
+        <v>29.94056512747218</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>29.85965663164955</v>
+        <v>41.87433375680462</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>34.35814844274946</v>
+        <v>51.49149612520884</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>36.73005476709745</v>
+        <v>55.06064246873711</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>31.45694656631552</v>
+        <v>46.89252662371163</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>27.07715960733221</v>
+        <v>28.56604546633653</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>29.39786298908226</v>
+        <v>30.90719614547418</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>24.26741696469774</v>
+        <v>23.84677017729413</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>29.85975617193647</v>
+        <v>39.82955147842247</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>34.35824807518662</v>
+        <v>47.86429202723988</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>36.7301543310551</v>
+        <v>51.3161056308611</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>31.45704634550378</v>
+        <v>42.21481223143374</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>27.07701712820842</v>
+        <v>18.57993354159148</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>29.39772075386266</v>
+        <v>20.38238045078486</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>24.26727384924884</v>
+        <v>14.95927676481844</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>29.85961134148787</v>
+        <v>36.21448840457501</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>34.35810399076016</v>
+        <v>40.79781646982147</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>36.73001049614643</v>
+        <v>43.69293873468041</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>31.45690162300216</v>
+        <v>35.03995245165143</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>23.67821604734361</v>
+        <v>-1.919323859271092</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>27.75026977469558</v>
+        <v>-3.74977810769602</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>30.04928876090322</v>
+        <v>-2.403809569866443</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>24.85602914957297</v>
+        <v>-8.609161516606978</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>28.3231756485414</v>
+        <v>21.49713819162042</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>23.6785279493194</v>
+        <v>5.374489709191376</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>27.75058580950207</v>
+        <v>8.923240919654202</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>30.04960683118949</v>
+        <v>12.42565074503196</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>24.85634287582394</v>
+        <v>3.75099292612779</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>28.32349159866422</v>
+        <v>36.19205140624433</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>23.67862737875532</v>
+        <v>7.270045494662408</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>27.75068542545778</v>
+        <v>8.370234654015999</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>30.04970639358591</v>
+        <v>11.67708161192999</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>24.85644263428588</v>
+        <v>1.442336532438187</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>28.32359088291861</v>
+        <v>38.48370563133008</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>23.67848466054444</v>
+        <v>8.883354420061064</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>27.75054324301275</v>
+        <v>7.192762392034037</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>30.04956442560214</v>
+        <v>10.61401104941319</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>24.85629979776736</v>
+        <v>1.308964306294992</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>28.32344844955303</v>
+        <v>36.24624834406697</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>32.75118588416632</v>
+        <v>25.1069079945864</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>35.12239099909958</v>
+        <v>27.22654507094637</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>29.85605220307919</v>
+        <v>20.50789256072258</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>35.40282940264488</v>
+        <v>29.37929460426136</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>39.91236944819185</v>
+        <v>33.4069811620752</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>42.33381551453297</v>
+        <v>35.88508781431003</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>36.92590287597345</v>
+        <v>26.99339962237834</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>32.75150604300757</v>
+        <v>44.08690489685179</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>35.12271321581156</v>
+        <v>49.09709928060073</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>29.85637006517936</v>
+        <v>39.77185021560118</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>35.40315221889061</v>
+        <v>48.18293460878073</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>39.91269651289947</v>
+        <v>59.15884151828155</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>42.33414466571037</v>
+        <v>65.24204247895398</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>36.92622759235729</v>
+        <v>53.65493911422001</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>32.75160542353801</v>
+        <v>44.34650228721497</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>35.12281252619738</v>
+        <v>49.16659927823304</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>29.85646959097463</v>
+        <v>39.00255804545012</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>35.40325097303176</v>
+        <v>50.88818028709309</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>39.91279536206149</v>
+        <v>60.36702226179833</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>42.33424343910934</v>
+        <v>66.53612923233888</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>36.92632660682436</v>
+        <v>53.74208797044091</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>32.7514636933988</v>
+        <v>38.81215810498773</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>35.12267105022565</v>
+        <v>43.36355053803098</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>29.85632719073417</v>
+        <v>34.52306400851566</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>35.40310694885675</v>
+        <v>51.81755827701781</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>39.91265207382236</v>
+        <v>57.87604013151289</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>42.3341004105926</v>
+        <v>63.74558582266837</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>36.92618264591367</v>
+        <v>51.0963696408086</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>18.99513583661174</v>
+        <v>11.23130664119509</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>23.05431516882063</v>
+        <v>10.75243214564059</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>25.30809878565455</v>
+        <v>10.59728408537401</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>20.22690075513008</v>
+        <v>7.806369039349729</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>23.11159058423097</v>
+        <v>6.095577510790942</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>18.99544524843789</v>
+        <v>16.23283468350573</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>23.05462869170973</v>
+        <v>20.84830597122894</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>25.30841432138136</v>
+        <v>22.52318003178032</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>20.22721198889293</v>
+        <v>17.68929936123393</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>23.11190384649759</v>
+        <v>18.28956286519027</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>18.99554543865748</v>
+        <v>16.56245792448726</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>23.05472906853046</v>
+        <v>18.65766152690074</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>25.30851465145603</v>
+        <v>20.05613901623826</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>20.22731249354236</v>
+        <v>13.72425539234396</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>23.11200398379168</v>
+        <v>17.97820272737601</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>18.99540156653866</v>
+        <v>14.014692882214</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>23.05458574511797</v>
+        <v>13.39978762534789</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>25.30837152916401</v>
+        <v>14.96613245100525</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>20.22716854547668</v>
+        <v>9.480139994376284</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>23.11186018516023</v>
+        <v>12.77839841315724</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>27.5182942914585</v>
+        <v>6.779045593364597</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>29.84324033087378</v>
+        <v>6.316064511461686</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>24.6917825870822</v>
+        <v>3.445339232420192</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>30.5995343854504</v>
+        <v>18.03927062087518</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>35.09386158299118</v>
+        <v>20.64172586433758</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>37.47113857090638</v>
+        <v>20.97231318254279</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>32.17323613895774</v>
+        <v>15.09801417134249</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>27.51861173867488</v>
+        <v>22.95551918039754</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>29.84355981268995</v>
+        <v>25.03542986076789</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>24.69209775771179</v>
+        <v>20.0021094916257</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>30.59985475329838</v>
+        <v>35.22509109292233</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>35.09418617792689</v>
+        <v>44.47832106501451</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>37.47146523000831</v>
+        <v>48.05479126097555</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>32.17355840383091</v>
+        <v>39.89557790096191</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>27.51871197419031</v>
+        <v>20.54372973773334</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>29.84365998494761</v>
+        <v>22.34138619704603</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>24.69219812353705</v>
+        <v>16.54198016867783</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>30.59995431263036</v>
+        <v>35.75794101485036</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>35.09428583318294</v>
+        <v>43.44890048181239</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>37.47156481611727</v>
+        <v>47.02667501895192</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>32.17365820974634</v>
+        <v>37.71045390019671</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>27.51856888733673</v>
+        <v>12.12392996426925</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>29.84351713870005</v>
+        <v>13.71132369413945</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>24.69205439670435</v>
+        <v>9.133638728648943</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>30.59980902681083</v>
+        <v>32.96709810979317</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>35.09414129421625</v>
+        <v>37.28379920257569</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>37.47142052387058</v>
+        <v>40.64095621587103</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>32.17351302792719</v>
+        <v>31.36402456152953</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>15.37927724586662</v>
+        <v>0.1877919903712346</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>19.39581587501044</v>
+        <v>-1.559170146217841</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>21.61582713555579</v>
+        <v>-2.71905290009531</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>16.61778056676246</v>
+        <v>-2.41124098292639</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>19.6575069025386</v>
+        <v>-5.052979746041107</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>15.3795824821263</v>
+        <v>3.084784982441757</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>19.39612518298224</v>
+        <v>6.197589143859627</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>21.61613843328</v>
+        <v>6.797694578939026</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>16.61808761562788</v>
+        <v>5.101918254963007</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>19.65781601011518</v>
+        <v>2.86480737618427</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>15.37968242712448</v>
+        <v>4.904288561452883</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>19.3962253154616</v>
+        <v>5.648502777892329</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>21.61623852216619</v>
+        <v>5.991289717964289</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>16.61818787033408</v>
+        <v>2.872931092794342</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>19.65791585944473</v>
+        <v>3.895967932977438</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>15.37953813850491</v>
+        <v>6.139050961442049</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>19.39608156602161</v>
+        <v>4.362388188810851</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>21.61609496619837</v>
+        <v>4.912856772238538</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>16.61804351096393</v>
+        <v>2.621963280232674</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>19.65777174518538</v>
+        <v>3.516012628330795</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>24.02059657107532</v>
+        <v>-6.028733910782965</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>26.31186509005916</v>
+        <v>-7.483619913505326</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>21.24192068362024</v>
+        <v>-7.618073254065312</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>27.10893412055447</v>
+        <v>7.174289531347338</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>31.55845192277298</v>
+        <v>8.85661256825156</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>33.90140374426339</v>
+        <v>7.962564077278525</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>28.68586826722939</v>
+        <v>5.367213393257057</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>24.02090982406587</v>
+        <v>5.690233465683971</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>26.31218035474199</v>
+        <v>6.697063589653506</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>21.24223168948072</v>
+        <v>4.457783048918511</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>27.10925029334105</v>
+        <v>19.86010123722877</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>31.55877228282268</v>
+        <v>28.01580143901768</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>33.90172614515864</v>
+        <v>30.2760327067134</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>28.68618632686942</v>
+        <v>25.46764908718185</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>24.02100977274847</v>
+        <v>4.754769076120933</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>26.31228024335257</v>
+        <v>5.496149091465806</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>21.24233176319957</v>
+        <v>2.552729078495442</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>27.10934955926689</v>
+        <v>21.41921006146822</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>31.55887164621937</v>
+        <v>28.14139056346172</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>33.901825442667</v>
+        <v>30.4125853798167</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>28.68628583557467</v>
+        <v>24.52273334126525</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>24.02086636037124</v>
+        <v>1.310925544543945</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>26.31213706383076</v>
+        <v>1.886155846080978</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>21.24218772496857</v>
+        <v>0.131424754764307</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>27.10920396794224</v>
+        <v>23.64559503784207</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>31.55872679167308</v>
+        <v>27.13112391907574</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>33.90168082702789</v>
+        <v>29.22043770233213</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>28.68614035192856</v>
+        <v>23.35374098209249</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>27.10295106846603</v>
+        <v>18.50738461699734</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>31.36938937719139</v>
+        <v>20.27671782022102</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>33.67693247569476</v>
+        <v>21.42376273902525</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>28.48005242829521</v>
+        <v>18.03062842354145</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>31.37872012658577</v>
+        <v>6.335701860653867</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>27.1032727231199</v>
+        <v>31.17978646524352</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>31.36971531061535</v>
+        <v>39.36827783907424</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>33.6772604761067</v>
+        <v>42.82238020637681</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>28.48037600305635</v>
+        <v>36.93344412818024</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>31.37904565102862</v>
+        <v>25.09361815452052</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>27.10337450173249</v>
+        <v>33.71495530557365</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>31.36981726772232</v>
+        <v>39.72191947216888</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>33.67736238883517</v>
+        <v>43.01356223461823</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>28.48047808467821</v>
+        <v>35.5318215559233</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>31.37914732853141</v>
+        <v>28.07892987609224</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>27.10322883169869</v>
+        <v>28.27275234413198</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>31.36967218803199</v>
+        <v>30.62776501768317</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>33.67721751027968</v>
+        <v>33.87713849049331</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>28.48033238257193</v>
+        <v>27.3005054048867</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>31.37900180830496</v>
+        <v>23.19348739649163</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>36.00521638425452</v>
+        <v>10.85104307454665</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>38.3853892439068</v>
+        <v>11.37258400438906</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>33.11754432071272</v>
+        <v>8.634889966260882</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>38.53605720481868</v>
+        <v>17.60989918894179</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>43.23572448772411</v>
+        <v>23.1145280248958</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>45.66872705536708</v>
+        <v>23.99100581649799</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>40.25199812814591</v>
+        <v>18.52974313538655</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>36.00554626407127</v>
+        <v>34.96233029293356</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>38.3857212128497</v>
+        <v>38.52309751656017</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>33.11787185641305</v>
+        <v>33.19190573716836</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>38.53638979779268</v>
+        <v>41.5630701712071</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>43.23606147130613</v>
+        <v>55.1236643228165</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>45.66906615754655</v>
+        <v>59.76640756873334</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>40.25233271180493</v>
+        <v>51.56593149086555</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>36.00564802847833</v>
+        <v>36.20820693125532</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>38.3858229158896</v>
+        <v>39.6136252719983</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>33.11797374815054</v>
+        <v>33.41126031750596</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>38.53649098513048</v>
+        <v>44.85024739795753</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>43.2361627452272</v>
+        <v>57.19262258600455</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>45.66916736401628</v>
+        <v>61.955906306402</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>40.25243413330233</v>
+        <v>52.50127207481242</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>36.0055032664539</v>
+        <v>27.10437450457212</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>38.38567839544494</v>
+        <v>30.09337158805939</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>33.1178283470451</v>
+        <v>25.11402777062849</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>38.5363437536525</v>
+        <v>41.77300230884074</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>43.23601630308659</v>
+        <v>49.72307537127247</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>45.6690211699911</v>
+        <v>54.04002784630131</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>40.25228705044798</v>
+        <v>44.60465713270483</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>25.84539835885974</v>
+        <v>33.04015268121444</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>29.94196074920823</v>
+        <v>33.01933886804309</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>32.2297469588006</v>
+        <v>35.44471067464502</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>27.07050399785171</v>
+        <v>26.90959227119114</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>29.83818383568595</v>
+        <v>22.92949338301949</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>25.84570981818114</v>
+        <v>42.04301478647056</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>29.94227633797273</v>
+        <v>47.52975289754906</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>32.23006457418376</v>
+        <v>52.19044496810687</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>27.07081729163339</v>
+        <v>41.21276707730075</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>29.83849915078958</v>
+        <v>39.72232367077459</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>25.84580844822221</v>
+        <v>39.86320697793653</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>29.94237514707763</v>
+        <v>42.95656114935079</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>32.23016333066499</v>
+        <v>47.34852440622035</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>27.07091624071769</v>
+        <v>34.91562238887158</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>29.83859777302734</v>
+        <v>38.2739986507988</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>25.84566753214603</v>
+        <v>41.71286141829174</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>29.94223478040436</v>
+        <v>41.88260217654326</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>32.23002317948007</v>
+        <v>46.20563561775808</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>27.07077522334966</v>
+        <v>34.86844882595247</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>29.83845686047403</v>
+        <v>36.52402572283896</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>34.28261871990918</v>
+        <v>25.52297964945384</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>36.64088882333505</v>
+        <v>27.50776900367023</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>31.41264629509975</v>
+        <v>19.94648704785558</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>36.8292307477594</v>
+        <v>26.1151449172595</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>41.35639179362859</v>
+        <v>30.18211785162103</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>43.76477204905441</v>
+        <v>32.27039944578499</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>38.39601027152976</v>
+        <v>23.05787107863514</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>34.28293823821266</v>
+        <v>46.70791565885602</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>36.64121038993724</v>
+        <v>51.65631385926247</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>31.41296353045314</v>
+        <v>41.50714771196792</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>36.82955286533435</v>
+        <v>46.33083119379717</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>41.35671815460142</v>
+        <v>57.45574451355591</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>43.76510048678448</v>
+        <v>63.2231113059876</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>38.39633429827857</v>
+        <v>51.32277422553776</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>34.28303695142257</v>
+        <v>43.33416384989184</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>36.64130903423911</v>
+        <v>48.00900177352278</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>31.41306238575154</v>
+        <v>37.14582341324549</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>36.82965096920432</v>
+        <v>45.31502334985333</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>41.35681634762818</v>
+        <v>55.03458710035162</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>43.76519860528917</v>
+        <v>60.80365790810984</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>38.39643265322382</v>
+        <v>47.8156980995594</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>34.2828967520807</v>
+        <v>38.17135576060295</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>36.64116908951112</v>
+        <v>42.37803238700693</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>31.41292152105116</v>
+        <v>33.04634332974135</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>36.82950842914131</v>
+        <v>47.05278229188534</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>41.35667455321033</v>
+        <v>53.2084065713066</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>43.76505707105439</v>
+        <v>58.482272948738</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>38.39629019132914</v>
+        <v>45.82341660874388</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>29.75426442928591</v>
+        <v>31.40174544093773</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>34.03595377487888</v>
+        <v>28.34978083707668</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>36.37066589280033</v>
+        <v>30.78722957884852</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>31.11826572537107</v>
+        <v>22.52594820899079</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>34.09029005204712</v>
+        <v>21.42092806202288</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>29.75458587393491</v>
+        <v>41.28252482214288</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>34.036279495259</v>
+        <v>44.28306439515367</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>36.37099368588237</v>
+        <v>49.11050722778953</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>31.11858908470825</v>
+        <v>38.28897881315746</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>34.09061545039752</v>
+        <v>39.28464371478498</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>29.75468649906024</v>
+        <v>40.73246628645194</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>34.03638028819222</v>
+        <v>41.38548434081528</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>36.37109442790044</v>
+        <v>46.07331916749496</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>31.11869001119056</v>
+        <v>33.55716298760061</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>34.09071599178523</v>
+        <v>39.61450256098396</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>29.75454240302072</v>
+        <v>40.54728316017184</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>34.03623678754341</v>
+        <v>38.16603176522435</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>36.37095114179009</v>
+        <v>42.86602299080062</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>31.11854587284736</v>
+        <v>31.17788986553412</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>34.09057203283314</v>
+        <v>38.78466877660313</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>38.73370422751751</v>
+        <v>23.89898542066615</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>41.14014129545043</v>
+        <v>26.18355234081895</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>35.81773615492908</v>
+        <v>18.44339014859943</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>40.95289345122253</v>
+        <v>26.33448908765575</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>45.66643063471749</v>
+        <v>29.07527274496229</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>48.12409175496575</v>
+        <v>31.48315896401888</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>42.65738157829667</v>
+        <v>22.05259430600657</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>38.73403397802983</v>
+        <v>46.70367562714713</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>41.14047314074514</v>
+        <v>52.13915640262718</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>35.81806355842903</v>
+        <v>41.69146604918663</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>40.95322571350977</v>
+        <v>47.91465988416883</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>45.66676728335842</v>
+        <v>58.28878062493268</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>48.12443052716084</v>
+        <v>64.57415475192715</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>42.65771582593828</v>
+        <v>52.31050923911548</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>38.73413459521746</v>
+        <v>45.12076468468868</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>41.14057369030824</v>
+        <v>50.42558407755442</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>35.8181643117271</v>
+        <v>39.00985241569984</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>40.95332580031996</v>
+        <v>48.80936665242785</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>45.66686744608452</v>
+        <v>57.80058368817069</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>48.12453061645579</v>
+        <v>64.23522602621705</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>42.6578161445269</v>
+        <v>50.62423381777197</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>38.73399140001142</v>
+        <v>40.72897848233706</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>41.14043074952041</v>
+        <v>45.64965290281648</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>35.81802046227507</v>
+        <v>35.44499894477266</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>40.95318006107994</v>
+        <v>50.43500431593927</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>45.66672250053608</v>
+        <v>55.74014256604042</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>48.12438593137051</v>
+        <v>61.76757863686444</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>42.65767054381209</v>
+        <v>48.14569467116362</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>17.76956092207998</v>
+        <v>39.3763825805589</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>22.32767602240818</v>
+        <v>30.98770808119584</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>24.77014071528655</v>
+        <v>32.59978756426341</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>19.32412088133026</v>
+        <v>25.6878024399887</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>22.44954469827089</v>
+        <v>33.50691159121621</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>17.76989478330585</v>
+        <v>50.30624243273618</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>22.32801437724612</v>
+        <v>47.90612038931491</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>24.77048124412721</v>
+        <v>51.85627439359541</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>19.32445677025288</v>
+        <v>42.32224252350662</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>22.4498827768148</v>
+        <v>50.70650761517223</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>17.77000295477532</v>
+        <v>51.93270924746531</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>22.32812270804233</v>
+        <v>47.36391496131088</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>24.77058952321918</v>
+        <v>51.21102566280101</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>19.32456522647967</v>
+        <v>39.9555766733823</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>22.44999085602523</v>
+        <v>52.40999994807615</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>17.76984675130491</v>
+        <v>52.26321040914473</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>22.32796716916493</v>
+        <v>44.70093581433346</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>24.77043420874273</v>
+        <v>48.600441097116</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>19.32440904242938</v>
+        <v>38.18872456193091</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>22.44983484094211</v>
+        <v>52.84092168620165</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>27.38676048401653</v>
+        <v>28.49012294295053</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>29.90505995873166</v>
+        <v>29.94485379479778</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>24.38388480234308</v>
+        <v>23.0906348570052</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>30.14128218769302</v>
+        <v>39.45512232546878</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>35.1537262758637</v>
+        <v>34.93534442333501</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>37.72614840291112</v>
+        <v>36.3298192885178</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>32.05025116802445</v>
+        <v>28.11869221690611</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>27.3871031367263</v>
+        <v>50.5925307466982</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>29.90540480880771</v>
+        <v>55.12038008095604</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>24.38422500321832</v>
+        <v>45.53544171460968</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>30.14162767452206</v>
+        <v>61.05400604168759</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>35.15407637422012</v>
+        <v>64.12414502436971</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>37.72650072923902</v>
+        <v>69.30684419382305</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>32.05059875669281</v>
+        <v>58.24584527573316</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>27.38721127904216</v>
+        <v>50.56775819662428</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>29.90551288179927</v>
+        <v>54.99963168933726</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>24.38433327382324</v>
+        <v>44.41400080037076</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>30.1417351684945</v>
+        <v>63.25712549502319</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>35.15418393178634</v>
+        <v>65.11020631521538</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>37.72660821138011</v>
+        <v>70.46896614330277</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>32.05070646395514</v>
+        <v>58.03019000740014</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>27.3870561051088</v>
+        <v>47.48498567971532</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>29.90535797443797</v>
+        <v>51.5881231897844</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>24.38417743696726</v>
+        <v>42.19684346606303</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>30.14157743202985</v>
+        <v>65.49002597725573</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>35.15402706754203</v>
+        <v>63.66944898498505</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>37.7264516197742</v>
+        <v>68.67095438169227</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>32.05054893507057</v>
+        <v>56.22027378337125</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>26.20541769488842</v>
+        <v>23.10378195515369</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>30.40004744074063</v>
+        <v>21.74697933406022</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>32.72313327451448</v>
+        <v>24.12536357321116</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>27.50276488378067</v>
+        <v>15.6359470742781</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>30.34379806560098</v>
+        <v>16.71975401326096</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>26.20573586500324</v>
+        <v>40.45413565401839</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>30.40036983532912</v>
+        <v>44.69055011051015</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>32.72345773112194</v>
+        <v>49.63307792009618</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>27.50308493828226</v>
+        <v>38.16680571110143</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>30.34412010784995</v>
+        <v>38.38860318971103</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>26.20583672641146</v>
+        <v>39.10088782259803</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>30.40047087371437</v>
+        <v>40.98737753170107</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>32.7235587193041</v>
+        <v>45.68009255442163</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>27.50318610838336</v>
+        <v>32.68758245980067</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>30.34422093079539</v>
+        <v>38.16723671682848</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>26.20569268316569</v>
+        <v>35.76641908065847</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>30.40032738451407</v>
+        <v>34.9565188910137</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>32.72341544902559</v>
+        <v>39.33822329623791</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>27.50304197538323</v>
+        <v>27.80378604758536</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>30.34407696341034</v>
+        <v>33.39247846278215</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>34.89172864079542</v>
+        <v>19.10973745752258</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>37.28602234521161</v>
+        <v>21.08645214711677</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>31.9956954813892</v>
+        <v>14.05408845050183</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>37.22893644971801</v>
+        <v>20.84403255082449</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>41.85783240648027</v>
+        <v>23.83875953091737</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>44.30237617258828</v>
+        <v>25.794849907165</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>38.87143523565548</v>
+        <v>17.00929986476521</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>34.89205498134925</v>
+        <v>45.22956838648005</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>37.2863507694509</v>
+        <v>50.50960485148815</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>31.99601949449329</v>
+        <v>40.39512555573199</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>37.22926525755197</v>
+        <v>46.60334017574792</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>41.85816555042746</v>
+        <v>56.7721592305584</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>44.30271142848124</v>
+        <v>62.75533049084319</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>38.87176600053206</v>
+        <v>50.78593370258548</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>34.89215589148318</v>
+        <v>43.06839026499765</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>37.28645161284395</v>
+        <v>48.09898408274825</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>31.99612053866913</v>
+        <v>37.18785846445925</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>37.22936557712278</v>
+        <v>46.99841270668767</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>41.85826595535152</v>
+        <v>55.7808419716998</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>44.30281176088988</v>
+        <v>61.78997941534908</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>38.8718665592542</v>
+        <v>48.65655236389281</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>34.89201264541097</v>
+        <v>35.09384285834929</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>37.2863086254502</v>
+        <v>39.41401917658001</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>31.9959766335139</v>
+        <v>30.33573671390181</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>37.22921991776457</v>
+        <v>44.83363989887087</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>41.85812105008471</v>
+        <v>50.2591917555113</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>44.30266712009937</v>
+        <v>55.52631085956205</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>38.87172099327684</v>
+        <v>43.02599136101455</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>23.11139893163458</v>
+        <v>10.41928042866911</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>27.22465905360155</v>
+        <v>9.595689459857024</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>29.45473447433641</v>
+        <v>9.443789920519205</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>24.43710487620352</v>
+        <v>6.672450125809998</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>27.53094250827346</v>
+        <v>13.93170062390882</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>23.11170942435433</v>
+        <v>18.35482246332486</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>27.22497367284531</v>
+        <v>23.04682361460416</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>29.45505109424506</v>
+        <v>25.1274803378208</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>24.4374172085657</v>
+        <v>19.77350001389643</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>27.53125689621496</v>
+        <v>33.0088167713875</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>23.11180857541247</v>
+        <v>17.25980579625391</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>27.22507300128994</v>
+        <v>19.61634633501083</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>29.45515037992832</v>
+        <v>21.45330521968378</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>24.43751665663593</v>
+        <v>14.60279205207805</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>27.53135590907619</v>
+        <v>31.78709137301083</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>23.11166603399143</v>
+        <v>17.98842886889684</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>27.2249310308738</v>
+        <v>17.47290696837259</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>29.45500860573937</v>
+        <v>19.27536732251925</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>24.43737408879964</v>
+        <v>13.45011881598785</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>27.53121363139584</v>
+        <v>29.52660633099802</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>31.99578943861837</v>
+        <v>15.61908414947603</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>34.29758334740848</v>
+        <v>16.09553307094898</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>29.2081387025833</v>
+        <v>11.54649359592585</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>34.43934961569432</v>
+        <v>19.58436444689749</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>38.97403637447754</v>
+        <v>22.07565750983914</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>41.32723457204884</v>
+        <v>22.72947995193226</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>36.09357528389188</v>
+        <v>16.37841947232632</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>31.99610802950336</v>
+        <v>39.12562831494731</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>34.29790396089841</v>
+        <v>42.60634499549769</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>29.20845502011257</v>
+        <v>35.2588893969706</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>34.43967085674308</v>
+        <v>44.22354425322601</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>38.97436185207941</v>
+        <v>53.75189713380249</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>41.32756210104596</v>
+        <v>58.12191660584963</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>36.09389843407195</v>
+        <v>48.83171666534</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>31.99620713081054</v>
+        <v>36.00357830692636</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>34.29800300273265</v>
+        <v>39.23140912766289</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>29.20855424420137</v>
+        <v>31.1076900104853</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>34.43976942150043</v>
+        <v>43.91881491024375</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>38.97446050540402</v>
+        <v>52.04743777786823</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>41.32766068915227</v>
+        <v>56.44422441453068</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>36.09399722956329</v>
+        <v>45.98789085971376</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>31.99606558669106</v>
+        <v>30.35983396693925</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>34.29786169478795</v>
+        <v>33.1342637273406</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>29.20841208557644</v>
+        <v>26.45143595730039</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>34.43962545008223</v>
+        <v>42.57790557687795</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>38.97431729788946</v>
+        <v>47.18121672810386</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>41.32751772408392</v>
+        <v>51.09837732347171</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>36.09385340627288</v>
+        <v>40.90667970960456</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>17.18525129791028</v>
+        <v>16.74414080133922</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>21.74676140874969</v>
+        <v>13.72618819797125</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>24.18414891426152</v>
+        <v>14.44311039814528</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>18.75229094326285</v>
+        <v>9.347487122018517</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>21.85409459098565</v>
+        <v>11.66885585685395</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>17.18558501387761</v>
+        <v>31.42347172077791</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>21.74709961792313</v>
+        <v>34.37592161127915</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>24.18448929562093</v>
+        <v>37.4193575627643</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>18.75262668824606</v>
+        <v>29.66386369136191</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>21.85443251887799</v>
+        <v>32.91598062317911</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>17.18569332299545</v>
+        <v>36.52790348683939</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>21.74720808565554</v>
+        <v>37.27774230950101</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>24.18459771261918</v>
+        <v>40.23557353990429</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>18.75273527920855</v>
+        <v>30.7231849969643</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>21.85454073648875</v>
+        <v>37.45026901059126</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>17.18553691165546</v>
+        <v>33.67883303083468</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>21.74705234154334</v>
+        <v>31.45185270851962</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>24.1844421913002</v>
+        <v>34.4556066534123</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>18.75257889400696</v>
+        <v>25.82139758392176</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>21.85438451330145</v>
+        <v>34.58296193937016</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>26.79355060360042</v>
+        <v>11.82895274660151</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>29.30679965109405</v>
+        <v>12.44480987529209</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>23.79958681892018</v>
+        <v>6.860981991942449</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>29.57126824466264</v>
+        <v>14.15602092574141</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>34.58634155548124</v>
+        <v>14.60580013202738</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>37.15392605660303</v>
+        <v>15.15531409435868</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>31.49156423942103</v>
+        <v>8.067351500521706</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>26.79389310507636</v>
+        <v>37.96974588372464</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>29.30714434810004</v>
+        <v>41.64870489485429</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>23.79992687026792</v>
+        <v>33.29317911275442</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>29.57161359842788</v>
+        <v>40.52165873213335</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>34.58669152021549</v>
+        <v>48.54560581147368</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>37.15427824756294</v>
+        <v>52.87391766046883</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>31.49191169597535</v>
+        <v>42.88601398599329</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>26.79400138538393</v>
+        <v>40.75124215448724</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>29.30725256002523</v>
+        <v>44.34891888468053</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>23.8000352767232</v>
+        <v>34.960845649726</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>29.57172122845526</v>
+        <v>45.54104438354534</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>34.58679921330011</v>
+        <v>52.31935815882017</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>37.15438586614236</v>
+        <v>56.83952857562741</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>31.49201953662282</v>
+        <v>45.43859189603498</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>26.79384600536877</v>
+        <v>34.38086322444312</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>29.30709744502361</v>
+        <v>37.64025638466126</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>23.79987923776684</v>
+        <v>29.48197287601036</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>29.57156328655315</v>
+        <v>43.91623799000217</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>34.58664214582561</v>
+        <v>47.03280373004739</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>37.15422906980239</v>
+        <v>51.18553884200671</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>31.49186180851725</v>
+        <v>39.81182511972636</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>30.82999545953306</v>
+        <v>35.65689559083918</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>34.95169565265818</v>
+        <v>33.83115607710076</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>37.22796156543619</v>
+        <v>36.14963101549318</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>32.08131771822397</v>
+        <v>28.11180721716996</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>35.04734333349636</v>
+        <v>24.64165584526804</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>30.83030966304455</v>
+        <v>42.65276945595232</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>34.95201401162019</v>
+        <v>46.58322135593161</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>37.22828194800557</v>
+        <v>51.09437504724841</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>32.08163376852166</v>
+        <v>40.73630131452344</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>35.0476614373223</v>
+        <v>38.50589324327936</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>30.83040772538506</v>
+        <v>42.47214361703192</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>34.95211225140317</v>
+        <v>44.14751782847136</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>37.2283801375275</v>
+        <v>48.48559463624829</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>32.08173214413335</v>
+        <v>36.42950967165919</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>35.04775943388828</v>
+        <v>39.61493362143233</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>30.83026779486499</v>
+        <v>42.1955259290377</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>34.95197288406318</v>
+        <v>40.84609179204531</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>37.22824097653277</v>
+        <v>45.28589078996234</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>32.08159214445378</v>
+        <v>33.83941023539015</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>35.04761957056024</v>
+        <v>39.13464266781685</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>39.52162056180316</v>
+        <v>27.47945248022634</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>41.86872715190351</v>
+        <v>29.70508264137305</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>36.65297450518558</v>
+        <v>22.3701854429909</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>41.73247954460898</v>
+        <v>29.00455797862133</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>46.28156077235602</v>
+        <v>31.94849296271016</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>48.67929721838428</v>
+        <v>34.30464338906458</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>43.32260731775094</v>
+        <v>25.18117630485781</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>39.52194289537993</v>
+        <v>45.90210334370167</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>41.86905153078</v>
+        <v>51.04267861164183</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>36.65329454369042</v>
+        <v>41.2313411888683</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>41.73280439248545</v>
+        <v>47.2318773349561</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>46.28188988509778</v>
+        <v>57.40829303113148</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>48.67962840502268</v>
+        <v>63.40147352413427</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>43.32293408288272</v>
+        <v>51.70953957697785</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>39.52204097972605</v>
+        <v>45.1806517297064</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>41.86914954839986</v>
+        <v>50.14941793654046</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>36.65339276641967</v>
+        <v>39.35201282305528</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>41.73290196004365</v>
+        <v>48.58901737948059</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>46.28198753932995</v>
+        <v>57.4602447582113</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>48.6797259868701</v>
+        <v>63.55602147116008</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>43.32303189470132</v>
+        <v>50.51188272483157</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>39.52190184405251</v>
+        <v>41.239046541242</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>41.86901065835128</v>
+        <v>45.93695626222672</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>36.65325298266553</v>
+        <v>36.11733583801393</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>41.73276034727287</v>
+        <v>49.00891708267199</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>46.28184668617241</v>
+        <v>54.24077677686026</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>48.6795853852558</v>
+        <v>60.02485727196097</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>43.32289039239058</v>
+        <v>46.76851470730847</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>26.88849086003523</v>
+        <v>22.32911727287691</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>31.09149470560072</v>
+        <v>20.8529038311137</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>33.41400168313097</v>
+        <v>23.28521265965059</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>28.19550069705144</v>
+        <v>14.46500084972271</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>31.09457093014469</v>
+        <v>18.05302649612849</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>26.88880914983736</v>
+        <v>40.46647816332219</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>31.09181722059018</v>
+        <v>44.43318879622623</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>33.41432625895551</v>
+        <v>49.44129770474174</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>28.19582087129238</v>
+        <v>37.5682413771797</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>31.09489308326713</v>
+        <v>38.93617207604748</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>26.88890985705138</v>
+        <v>40.07419974218504</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>31.09191810185992</v>
+        <v>41.6761407176086</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>33.41442708971853</v>
+        <v>46.45658589253028</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>28.1959218837348</v>
+        <v>32.98620892928923</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>31.09499372381308</v>
+        <v>39.36172677712955</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>26.88876599065826</v>
+        <v>35.02353799238557</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>31.09177479314825</v>
+        <v>34.16709785413107</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>33.41428400005258</v>
+        <v>38.63868446842574</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>28.1957779333411</v>
+        <v>26.65035452034649</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>31.09484997818146</v>
+        <v>34.10932641704588</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>35.65087309733817</v>
+        <v>20.52524561940518</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>38.04452762310066</v>
+        <v>22.55717466480902</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>32.75601591682187</v>
+        <v>15.17045374424967</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>37.86535712148425</v>
+        <v>20.51237864858362</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>42.50022760726648</v>
+        <v>22.77926205493284</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>44.94371355964763</v>
+        <v>24.64083506194185</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>39.51547943902638</v>
+        <v>15.62909173434772</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>35.65119954992049</v>
+        <v>45.69686553565899</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>38.0448561581078</v>
+        <v>51.03391959461322</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>32.7563400416914</v>
+        <v>40.48372390038159</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>37.86568599869614</v>
+        <v>46.3782121072783</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>42.50056082037143</v>
+        <v>55.6372322795709</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>44.9440488832569</v>
+        <v>61.52363032925237</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>39.51581027276281</v>
+        <v>49.25523705578897</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>35.65130027462601</v>
+        <v>44.16641894023556</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>38.04495681576319</v>
+        <v>49.27552225468082</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>32.75644090002345</v>
+        <v>37.84828680606481</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>37.86578616703044</v>
+        <v>47.06492307542959</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>42.500661071555</v>
+        <v>54.92008231406842</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>44.94414906173522</v>
+        <v>60.85040125685438</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>39.51591067714804</v>
+        <v>47.34492412559996</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>35.65115725307823</v>
+        <v>35.97754275621716</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>38.04481405297515</v>
+        <v>40.38689397879281</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>32.75629722111461</v>
+        <v>30.82650021356616</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>37.86564070255042</v>
+        <v>43.41575089063477</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>42.50051636402816</v>
+        <v>48.17290029718947</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>44.94400461875672</v>
+        <v>53.37148837325731</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>39.51576531098387</v>
+        <v>40.52435853488714</v>
       </c>
     </row>
   </sheetData>
